--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 250/DJI_returns_compared_quarter.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 250/DJI_returns_compared_quarter.xlsx
@@ -501,13 +501,13 @@
         <v>0.04227865906030299</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03544592809751145</v>
+        <v>0.04560231152239558</v>
       </c>
       <c r="H2" t="n">
-        <v>-16.16118182236069</v>
+        <v>7.861300561477106</v>
       </c>
       <c r="I2" t="n">
-        <v>40.80837719621758</v>
+        <v>54.64886602885748</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.04870034920601938</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05927992802261351</v>
+        <v>0.05480887362384868</v>
       </c>
       <c r="H3" t="n">
-        <v>21.7238253710232</v>
+        <v>12.54308134832489</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.001903895554279626</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.008744033312399355</v>
+        <v>-0.009210837112246226</v>
       </c>
       <c r="H4" t="n">
-        <v>-559.2706408050741</v>
+        <v>-583.7889920768956</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.003796350922797718</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.003431572534229538</v>
+        <v>0.01540883072149391</v>
       </c>
       <c r="H5" t="n">
-        <v>-190.3913416861011</v>
+        <v>305.8853102583673</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03466957945683312</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02316301185280917</v>
+        <v>0.05268921891400878</v>
       </c>
       <c r="H6" t="n">
-        <v>-33.1892332825978</v>
+        <v>51.97536208828781</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.05318894644845207</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01388618277686151</v>
+        <v>-0.0001769237259479474</v>
       </c>
       <c r="H7" t="n">
-        <v>-73.89272827518916</v>
+        <v>-100.3326325068676</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.0188207750246863</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02817459907653668</v>
+        <v>-0.01203855901600541</v>
       </c>
       <c r="H8" t="n">
-        <v>49.69946263945786</v>
+        <v>36.03579554925334</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.02152790501419843</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02852210838917179</v>
+        <v>0.00383017176652322</v>
       </c>
       <c r="H9" t="n">
-        <v>32.48901075306877</v>
+        <v>117.7916604704317</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.07270135600124471</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07792763129356775</v>
+        <v>-0.0779681464262218</v>
       </c>
       <c r="H10" t="n">
-        <v>7.188690252536094</v>
+        <v>-7.244418418945194</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.09201104153011744</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07949451306713883</v>
+        <v>-0.05844105697944695</v>
       </c>
       <c r="H11" t="n">
-        <v>-13.60328962136751</v>
+        <v>36.48473486704552</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.2444546442364949</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2288808068352014</v>
+        <v>-0.2448913669027963</v>
       </c>
       <c r="H12" t="n">
-        <v>-6.370849467775614</v>
+        <v>-0.1786518180766903</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.2748132209251613</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3116055267875186</v>
+        <v>-0.2662279137990329</v>
       </c>
       <c r="H13" t="n">
-        <v>13.38811347521625</v>
+        <v>3.124051709457758</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.03709719360824614</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02744615041341091</v>
+        <v>-0.06811065361976452</v>
       </c>
       <c r="H14" t="n">
-        <v>-26.0155614377524</v>
+        <v>-83.60055571595734</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.03477135930585561</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01351462899788455</v>
+        <v>-0.03830589927722763</v>
       </c>
       <c r="H15" t="n">
-        <v>-61.13287122597867</v>
+        <v>-10.16509001066514</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1253081874494862</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1240957685535998</v>
+        <v>0.127356010275682</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.96754962350338</v>
+        <v>1.634229069845331</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.140250491181987</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1221353918746938</v>
+        <v>0.1411099200003327</v>
       </c>
       <c r="H17" t="n">
-        <v>-12.91624660607236</v>
+        <v>0.6127813251152966</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1247327240054478</v>
       </c>
       <c r="G18" t="n">
-        <v>0.119412850455811</v>
+        <v>0.1295946850868651</v>
       </c>
       <c r="H18" t="n">
-        <v>-4.265018335849418</v>
+        <v>3.897903393182502</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1332138428780554</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1201532025344684</v>
+        <v>0.1285057946960539</v>
       </c>
       <c r="H19" t="n">
-        <v>-9.804266629814725</v>
+        <v>-3.5342034133129</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0343361127148248</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0494329332918306</v>
+        <v>0.05118338567372036</v>
       </c>
       <c r="H20" t="n">
-        <v>43.96776275285137</v>
+        <v>49.06575505159518</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0580398626137602</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05600315639589118</v>
+        <v>0.08507132971615736</v>
       </c>
       <c r="H21" t="n">
-        <v>-3.509150652927553</v>
+        <v>46.57396810582471</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.07984798411300953</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.08835425253879767</v>
+        <v>-0.08015290375337156</v>
       </c>
       <c r="H22" t="n">
-        <v>10.65307849694633</v>
+        <v>-0.3818751891475089</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.0625464344148645</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0930849763387008</v>
+        <v>-0.08426563797050143</v>
       </c>
       <c r="H23" t="n">
-        <v>48.82539222184447</v>
+        <v>-34.72492678251735</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1181145100376103</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1164472303460596</v>
+        <v>0.1236740116289681</v>
       </c>
       <c r="H24" t="n">
-        <v>-1.411579060878973</v>
+        <v>4.706874362504264</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1261703937413166</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1303173691373956</v>
+        <v>0.1277987880720661</v>
       </c>
       <c r="H25" t="n">
-        <v>3.286805464506531</v>
+        <v>1.290631092178516</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.04970410820324443</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04424918485350274</v>
+        <v>0.04434990064630216</v>
       </c>
       <c r="H26" t="n">
-        <v>-10.9747937281885</v>
+        <v>-10.77216300722759</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08667657030365644</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06990104467176673</v>
+        <v>0.07912491060091732</v>
       </c>
       <c r="H27" t="n">
-        <v>-19.35416407585065</v>
+        <v>-8.712457906771322</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.06359403648639915</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.08152354169503917</v>
+        <v>-0.08525459836001245</v>
       </c>
       <c r="H28" t="n">
-        <v>28.19368953325458</v>
+        <v>-34.06068095433106</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.07117222112479664</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.09604581102407687</v>
+        <v>-0.07389216428936139</v>
       </c>
       <c r="H29" t="n">
-        <v>34.9484525088317</v>
+        <v>-3.821635915781636</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.06370812679410731</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04582893298786953</v>
+        <v>0.04734712397934603</v>
       </c>
       <c r="H30" t="n">
-        <v>-28.06422776174219</v>
+        <v>-25.68118643267752</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06058046126463257</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0720171333274936</v>
+        <v>0.03867978614674235</v>
       </c>
       <c r="H31" t="n">
-        <v>18.87848296978528</v>
+        <v>-36.15138389623989</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09826398425744942</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08999853861535369</v>
+        <v>0.08952302705507752</v>
       </c>
       <c r="H32" t="n">
-        <v>-8.411470086985739</v>
+        <v>-8.895382441923781</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08228470513367886</v>
       </c>
       <c r="G33" t="n">
-        <v>0.104873866872868</v>
+        <v>0.09840413472291823</v>
       </c>
       <c r="H33" t="n">
-        <v>27.45244295703682</v>
+        <v>19.5898248198762</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02605521596528097</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.0005991960064876604</v>
+        <v>0.003465999333824717</v>
       </c>
       <c r="H34" t="n">
-        <v>-102.2997161385502</v>
+        <v>-86.69748376508096</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01121010888812176</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.01128827723279537</v>
+        <v>0.004561685503989554</v>
       </c>
       <c r="H35" t="n">
-        <v>0.6973022782716951</v>
+        <v>140.6926065528509</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.000538207081396954</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01702296312696535</v>
+        <v>0.01497901514552191</v>
       </c>
       <c r="H36" t="n">
-        <v>3062.902108753579</v>
+        <v>2683.132304138926</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.01255426494131421</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01684247709782976</v>
+        <v>0.01831168412873542</v>
       </c>
       <c r="H37" t="n">
-        <v>-234.1574132500875</v>
+        <v>245.8602651316877</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1072572674319558</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1207452687149148</v>
+        <v>0.1247083146959879</v>
       </c>
       <c r="H38" t="n">
-        <v>12.57537284502965</v>
+        <v>16.27027024075836</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.08566278196826137</v>
       </c>
       <c r="G39" t="n">
-        <v>0.119754820175467</v>
+        <v>0.1113234708348611</v>
       </c>
       <c r="H39" t="n">
-        <v>39.79795825430578</v>
+        <v>29.95546989835935</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.002970257287648657</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01383267491459941</v>
+        <v>0.0222697908248077</v>
       </c>
       <c r="H40" t="n">
-        <v>365.706286526773</v>
+        <v>649.759656088147</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01499674643284253</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0285201973799142</v>
+        <v>0.02450101693929442</v>
       </c>
       <c r="H41" t="n">
-        <v>90.17589920341406</v>
+        <v>63.37554981684399</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1009351255258904</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1057472919820576</v>
+        <v>0.1164157947907645</v>
       </c>
       <c r="H42" t="n">
-        <v>4.767583565280105</v>
+        <v>15.33724675549467</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1201445032180963</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1064037517792876</v>
+        <v>0.1043706321176854</v>
       </c>
       <c r="H43" t="n">
-        <v>-11.43685401392468</v>
+        <v>-13.12908262792253</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03568758707468612</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02064935039104185</v>
+        <v>0.02128126688405072</v>
       </c>
       <c r="H44" t="n">
-        <v>-42.13856389946626</v>
+        <v>-40.3678740187343</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.01637017416343009</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01535486804391591</v>
+        <v>0.01482312736067157</v>
       </c>
       <c r="H45" t="n">
-        <v>-6.202170541241452</v>
+        <v>-9.450399166885612</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.03623851914325588</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06003648587918332</v>
+        <v>0.06245818157168448</v>
       </c>
       <c r="H46" t="n">
-        <v>65.67036208585338</v>
+        <v>72.35301841330393</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.0504403138663916</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05395103776974305</v>
+        <v>0.06025931220960556</v>
       </c>
       <c r="H47" t="n">
-        <v>6.960154753697213</v>
+        <v>19.46656868397554</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.04278130222485538</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03736258678743472</v>
+        <v>0.0325803491511016</v>
       </c>
       <c r="H48" t="n">
-        <v>-12.66608344210817</v>
+        <v>-23.84441927489332</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.06947610067096774</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03499910858225719</v>
+        <v>0.0571779234180126</v>
       </c>
       <c r="H49" t="n">
-        <v>-49.62424741133694</v>
+        <v>-17.7013061098494</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.01727270648762695</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02549660646205069</v>
+        <v>0.02285432307763173</v>
       </c>
       <c r="H50" t="n">
-        <v>47.61210977743881</v>
+        <v>32.31466124896574</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.01946971104644109</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02873584747496426</v>
+        <v>0.0336081113699283</v>
       </c>
       <c r="H51" t="n">
-        <v>47.59257292735705</v>
+        <v>72.61741219354971</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.1035204554120877</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.123368452498761</v>
+        <v>-0.1146752902331229</v>
       </c>
       <c r="H52" t="n">
-        <v>19.17301948456819</v>
+        <v>-10.7754885511571</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.09235500825020453</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.09226943731875911</v>
+        <v>-0.08409352872391211</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.09265434876426903</v>
+        <v>8.945350861656296</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.07312266103795016</v>
       </c>
       <c r="G54" t="n">
-        <v>0.09801692338679971</v>
+        <v>0.07977332382905648</v>
       </c>
       <c r="H54" t="n">
-        <v>34.0445246322882</v>
+        <v>9.095214392778557</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06195165733408216</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07886615315836992</v>
+        <v>0.07394450847734348</v>
       </c>
       <c r="H55" t="n">
-        <v>27.30273337656522</v>
+        <v>19.35840243722351</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.03498921493576074</v>
       </c>
       <c r="G56" t="n">
-        <v>0.02292385039945048</v>
+        <v>0.03109048444348109</v>
       </c>
       <c r="H56" t="n">
-        <v>-34.4830958867238</v>
+        <v>-11.14266353056967</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.00577351772658883</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03636197092059232</v>
+        <v>0.02866961826810242</v>
       </c>
       <c r="H57" t="n">
-        <v>529.8061709091882</v>
+        <v>396.5710616262593</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02501060694948318</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02923550078094062</v>
+        <v>0.04529116095698538</v>
       </c>
       <c r="H58" t="n">
-        <v>16.8924082489919</v>
+        <v>81.08781225687636</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02367862578046835</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03045485947375903</v>
+        <v>0.03455642447577283</v>
       </c>
       <c r="H59" t="n">
-        <v>28.6175125031122</v>
+        <v>45.93931588832823</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.03244265799751207</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02302954734751223</v>
+        <v>0.02921688444278031</v>
       </c>
       <c r="H60" t="n">
-        <v>-29.01460987173648</v>
+        <v>-9.943000215885938</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.01265799316980976</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0334304973855061</v>
+        <v>0.02249262547667658</v>
       </c>
       <c r="H61" t="n">
-        <v>164.1058257579115</v>
+        <v>77.69503565796779</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06036261791027676</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05384993137969364</v>
+        <v>0.05688905847556601</v>
       </c>
       <c r="H62" t="n">
-        <v>-10.7892711682313</v>
+        <v>-5.754487719326323</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.0325894933447331</v>
       </c>
       <c r="G63" t="n">
-        <v>0.07545842121044556</v>
+        <v>0.04651718184026379</v>
       </c>
       <c r="H63" t="n">
-        <v>131.5421734613762</v>
+        <v>42.73674447222295</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.04052618101007328</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03178205978658156</v>
+        <v>0.03421533071850221</v>
       </c>
       <c r="H64" t="n">
-        <v>-21.57647477643714</v>
+        <v>-15.57227978131575</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.05606192114889961</v>
       </c>
       <c r="G65" t="n">
-        <v>0.05319692728086581</v>
+        <v>0.06042688437329032</v>
       </c>
       <c r="H65" t="n">
-        <v>-5.110409720752203</v>
+        <v>7.785967970661295</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.09355410458905353</v>
       </c>
       <c r="G66" t="n">
-        <v>0.09630274333406491</v>
+        <v>0.1090907559321947</v>
       </c>
       <c r="H66" t="n">
-        <v>2.938020471774141</v>
+        <v>16.60712954432901</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.1154466564276604</v>
       </c>
       <c r="G67" t="n">
-        <v>0.09696861733267433</v>
+        <v>0.08925361875051105</v>
       </c>
       <c r="H67" t="n">
-        <v>-16.00569446250228</v>
+        <v>-22.68843333159854</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.0348504828690879</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.03504785564029628</v>
+        <v>-0.02844111823196467</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5663415682066323</v>
+        <v>18.39103538736987</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.02122185286614946</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.01927932416924742</v>
+        <v>-0.01177002466872856</v>
       </c>
       <c r="H69" t="n">
-        <v>-9.153435890607504</v>
+        <v>44.53818550639994</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.0926362579572626</v>
       </c>
       <c r="G70" t="n">
-        <v>0.07610552583363125</v>
+        <v>0.08475393619452318</v>
       </c>
       <c r="H70" t="n">
-        <v>-17.844775348393</v>
+        <v>-8.508894828605778</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.09120879629782344</v>
       </c>
       <c r="G71" t="n">
-        <v>0.08453342125623052</v>
+        <v>0.1040528231893123</v>
       </c>
       <c r="H71" t="n">
-        <v>-7.318784275801497</v>
+        <v>14.08200460134278</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.05608102614120504</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.05209699242023091</v>
+        <v>-0.0533195950210853</v>
       </c>
       <c r="H72" t="n">
-        <v>-7.104067088470941</v>
+        <v>4.924002483775533</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.0737625898728473</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.07814950329200854</v>
+        <v>-0.06612633715551289</v>
       </c>
       <c r="H73" t="n">
-        <v>5.947341906952353</v>
+        <v>10.35247370041895</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.09994680679509479</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1227297379771148</v>
+        <v>0.1211774652428133</v>
       </c>
       <c r="H74" t="n">
-        <v>22.7950566031872</v>
+        <v>21.24195772581747</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.09740402268980237</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1078148555809561</v>
+        <v>0.1045121705090663</v>
       </c>
       <c r="H75" t="n">
-        <v>10.68829870025859</v>
+        <v>7.29759164249395</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.02557059836297979</v>
       </c>
       <c r="G76" t="n">
-        <v>0.01531546441824676</v>
+        <v>0.005792477837151994</v>
       </c>
       <c r="H76" t="n">
-        <v>-40.10517782634313</v>
+        <v>-77.34711657925793</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.01410904014821853</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.006817202649323206</v>
+        <v>0.01300602464535132</v>
       </c>
       <c r="H77" t="n">
-        <v>-148.3179761181981</v>
+        <v>-7.817792644147237</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.06427696861697516</v>
       </c>
       <c r="G78" t="n">
-        <v>0.09572886597770006</v>
+        <v>0.100315789515285</v>
       </c>
       <c r="H78" t="n">
-        <v>48.93183054127206</v>
+        <v>56.06801576636925</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.07671389623940993</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1101901659716527</v>
+        <v>0.09804389740097742</v>
       </c>
       <c r="H79" t="n">
-        <v>43.63781710131044</v>
+        <v>27.80461195061778</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.1656084023322101</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1557775113988412</v>
+        <v>-0.1495969118918831</v>
       </c>
       <c r="H80" t="n">
-        <v>-5.936227144833009</v>
+        <v>9.668283864129066</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2100920145126676</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1452703796565046</v>
+        <v>-0.1380216932368708</v>
       </c>
       <c r="H81" t="n">
-        <v>-30.85392607925826</v>
+        <v>34.30416974342035</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1146953280194116</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1479808778544671</v>
+        <v>0.1257018018279704</v>
       </c>
       <c r="H82" t="n">
-        <v>29.02084192079915</v>
+        <v>9.596270396206551</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1779822125067425</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1629970200043113</v>
+        <v>0.2101594080440368</v>
       </c>
       <c r="H83" t="n">
-        <v>-8.419488830583861</v>
+        <v>18.07888276255433</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.02383764904417494</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05907078271688627</v>
+        <v>0.05984911152112442</v>
       </c>
       <c r="H84" t="n">
-        <v>147.8045658253411</v>
+        <v>151.0696898432162</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.0615759402063604</v>
       </c>
       <c r="G85" t="n">
-        <v>0.06729853889278443</v>
+        <v>0.07995278777763996</v>
       </c>
       <c r="H85" t="n">
-        <v>9.293562822176657</v>
+        <v>29.84420133853085</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 250/DJI_returns_compared_quarter.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 250/DJI_returns_compared_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.04227865906030299</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04560231152239558</v>
+        <v>0.03426924709026265</v>
       </c>
       <c r="H2" t="n">
-        <v>7.861300561477106</v>
+        <v>-18.94433775351375</v>
       </c>
       <c r="I2" t="n">
-        <v>54.64886602885748</v>
+        <v>13.26394738455261</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.04870034920601938</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05480887362384868</v>
+        <v>0.0595546252267164</v>
       </c>
       <c r="H3" t="n">
-        <v>12.54308134832489</v>
+        <v>22.28788129378635</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.001903895554279626</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.009210837112246226</v>
+        <v>-0.01635275640033013</v>
       </c>
       <c r="H4" t="n">
-        <v>-583.7889920768956</v>
+        <v>-958.9103726605158</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.003796350922797718</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01540883072149391</v>
+        <v>-0.01297376065785644</v>
       </c>
       <c r="H5" t="n">
-        <v>305.8853102583673</v>
+        <v>-441.7429242367151</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03466957945683312</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05268921891400878</v>
+        <v>0.03504527399398531</v>
       </c>
       <c r="H6" t="n">
-        <v>51.97536208828781</v>
+        <v>1.083643191057361</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.05318894644845207</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0001769237259479474</v>
+        <v>0.06985041081686504</v>
       </c>
       <c r="H7" t="n">
-        <v>-100.3326325068676</v>
+        <v>31.32505056207568</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.0188207750246863</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01203855901600541</v>
+        <v>0.008706227010006257</v>
       </c>
       <c r="H8" t="n">
-        <v>36.03579554925334</v>
+        <v>146.2585998641752</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.02152790501419843</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00383017176652322</v>
+        <v>0.0009685069108547311</v>
       </c>
       <c r="H9" t="n">
-        <v>117.7916604704317</v>
+        <v>104.498844222027</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.07270135600124471</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0779681464262218</v>
+        <v>-0.08467300880605795</v>
       </c>
       <c r="H10" t="n">
-        <v>-7.244418418945194</v>
+        <v>-16.46689066515937</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.09201104153011744</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05844105697944695</v>
+        <v>-0.06667102992806373</v>
       </c>
       <c r="H11" t="n">
-        <v>36.48473486704552</v>
+        <v>27.54018559148611</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.2444546442364949</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2448913669027963</v>
+        <v>-0.2552254454605632</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1786518180766903</v>
+        <v>-4.406053015563982</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.2748132209251613</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2662279137990329</v>
+        <v>-0.3007508121401353</v>
       </c>
       <c r="H13" t="n">
-        <v>3.124051709457758</v>
+        <v>-9.438261786552655</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.03709719360824614</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.06811065361976452</v>
+        <v>-0.02421180379573063</v>
       </c>
       <c r="H14" t="n">
-        <v>-83.60055571595734</v>
+        <v>34.73413635701889</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.03477135930585561</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.03830589927722763</v>
+        <v>-0.03211262875972212</v>
       </c>
       <c r="H15" t="n">
-        <v>-10.16509001066514</v>
+        <v>7.646323293681968</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1253081874494862</v>
       </c>
       <c r="G16" t="n">
-        <v>0.127356010275682</v>
+        <v>0.1101152374305845</v>
       </c>
       <c r="H16" t="n">
-        <v>1.634229069845331</v>
+        <v>-12.12446714627186</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.140250491181987</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1411099200003327</v>
+        <v>0.1350710642820757</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6127813251152966</v>
+        <v>-3.692983073542735</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1247327240054478</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1295946850868651</v>
+        <v>0.1363639852945159</v>
       </c>
       <c r="H18" t="n">
-        <v>3.897903393182502</v>
+        <v>9.324947708638275</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1332138428780554</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1285057946960539</v>
+        <v>0.109637546754897</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.5342034133129</v>
+        <v>-17.69808273209284</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0343361127148248</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05118338567372036</v>
+        <v>0.0399523481137436</v>
       </c>
       <c r="H20" t="n">
-        <v>49.06575505159518</v>
+        <v>16.35664306429763</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0580398626137602</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08507132971615736</v>
+        <v>0.04701411861497632</v>
       </c>
       <c r="H21" t="n">
-        <v>46.57396810582471</v>
+        <v>-18.9968471706373</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.07984798411300953</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.08015290375337156</v>
+        <v>-0.09306538432034084</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.3818751891475089</v>
+        <v>-16.55320463522862</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.0625464344148645</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.08426563797050143</v>
+        <v>-0.08525911434974869</v>
       </c>
       <c r="H23" t="n">
-        <v>-34.72492678251735</v>
+        <v>-36.31330889980579</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1181145100376103</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1236740116289681</v>
+        <v>0.1203945863661415</v>
       </c>
       <c r="H24" t="n">
-        <v>4.706874362504264</v>
+        <v>1.930394773516972</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1261703937413166</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1277987880720661</v>
+        <v>0.1340394161425693</v>
       </c>
       <c r="H25" t="n">
-        <v>1.290631092178516</v>
+        <v>6.23682162503695</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.04970410820324443</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04434990064630216</v>
+        <v>0.03775439059890311</v>
       </c>
       <c r="H26" t="n">
-        <v>-10.77216300722759</v>
+        <v>-24.04171010468165</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08667657030365644</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07912491060091732</v>
+        <v>0.05830829231337434</v>
       </c>
       <c r="H27" t="n">
-        <v>-8.712457906771322</v>
+        <v>-32.72888843074746</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.06359403648639915</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.08525459836001245</v>
+        <v>-0.08072515062216395</v>
       </c>
       <c r="H28" t="n">
-        <v>-34.06068095433106</v>
+        <v>-26.93823993925693</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.07117222112479664</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.07389216428936139</v>
+        <v>-0.07599121292847734</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.821635915781636</v>
+        <v>-6.770888596030828</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.06370812679410731</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04734712397934603</v>
+        <v>0.05835898897489881</v>
       </c>
       <c r="H30" t="n">
-        <v>-25.68118643267752</v>
+        <v>-8.396319415411336</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06058046126463257</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03867978614674235</v>
+        <v>0.05350352906587293</v>
       </c>
       <c r="H31" t="n">
-        <v>-36.15138389623989</v>
+        <v>-11.68187242392493</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09826398425744942</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08952302705507752</v>
+        <v>0.08388967135687306</v>
       </c>
       <c r="H32" t="n">
-        <v>-8.895382441923781</v>
+        <v>-14.6282618287856</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08228470513367886</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09840413472291823</v>
+        <v>0.09785141731653284</v>
       </c>
       <c r="H33" t="n">
-        <v>19.5898248198762</v>
+        <v>18.91811140061141</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02605521596528097</v>
       </c>
       <c r="G34" t="n">
-        <v>0.003465999333824717</v>
+        <v>0.002797348339994649</v>
       </c>
       <c r="H34" t="n">
-        <v>-86.69748376508096</v>
+        <v>-89.26376836130561</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01121010888812176</v>
       </c>
       <c r="G35" t="n">
-        <v>0.004561685503989554</v>
+        <v>-0.004577573919160895</v>
       </c>
       <c r="H35" t="n">
-        <v>140.6926065528509</v>
+        <v>59.16566052260834</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.000538207081396954</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01497901514552191</v>
+        <v>0.008883952914180059</v>
       </c>
       <c r="H36" t="n">
-        <v>2683.132304138926</v>
+        <v>1550.657009402615</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.01255426494131421</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01831168412873542</v>
+        <v>-0.01178387172396554</v>
       </c>
       <c r="H37" t="n">
-        <v>245.8602651316877</v>
+        <v>6.136505967891603</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1072572674319558</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1247083146959879</v>
+        <v>0.1158172361505888</v>
       </c>
       <c r="H38" t="n">
-        <v>16.27027024075836</v>
+        <v>7.980782023990553</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.08566278196826137</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1113234708348611</v>
+        <v>0.1010639943828278</v>
       </c>
       <c r="H39" t="n">
-        <v>29.95546989835935</v>
+        <v>17.97888424902274</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.002970257287648657</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0222697908248077</v>
+        <v>0.01123280623663582</v>
       </c>
       <c r="H40" t="n">
-        <v>649.759656088147</v>
+        <v>278.1762032314729</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01499674643284253</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02450101693929442</v>
+        <v>0.01929905749994466</v>
       </c>
       <c r="H41" t="n">
-        <v>63.37554981684399</v>
+        <v>28.68829640061239</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1009351255258904</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1164157947907645</v>
+        <v>0.1170014508066673</v>
       </c>
       <c r="H42" t="n">
-        <v>15.33724675549467</v>
+        <v>15.91747689128875</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1201445032180963</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1043706321176854</v>
+        <v>0.1238901287118265</v>
       </c>
       <c r="H43" t="n">
-        <v>-13.12908262792253</v>
+        <v>3.117600384039898</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03568758707468612</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02128126688405072</v>
+        <v>0.01753072997119498</v>
       </c>
       <c r="H44" t="n">
-        <v>-40.3678740187343</v>
+        <v>-50.87723377176749</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.01637017416343009</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01482312736067157</v>
+        <v>0.02799954508216979</v>
       </c>
       <c r="H45" t="n">
-        <v>-9.450399166885612</v>
+        <v>71.03999507054091</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.03623851914325588</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06245818157168448</v>
+        <v>0.06119905471358636</v>
       </c>
       <c r="H46" t="n">
-        <v>72.35301841330393</v>
+        <v>68.87846457427807</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.0504403138663916</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06025931220960556</v>
+        <v>0.06949628160693959</v>
       </c>
       <c r="H47" t="n">
-        <v>19.46656868397554</v>
+        <v>37.77924100754851</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.04278130222485538</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0325803491511016</v>
+        <v>0.02206608365955405</v>
       </c>
       <c r="H48" t="n">
-        <v>-23.84441927489332</v>
+        <v>-48.42119685002495</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.06947610067096774</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0571779234180126</v>
+        <v>0.03853070655171578</v>
       </c>
       <c r="H49" t="n">
-        <v>-17.7013061098494</v>
+        <v>-44.54106350298274</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.01727270648762695</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02285432307763173</v>
+        <v>0.03112198766653721</v>
       </c>
       <c r="H50" t="n">
-        <v>32.31466124896574</v>
+        <v>80.18014541514376</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.01946971104644109</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0336081113699283</v>
+        <v>0.04304465516471798</v>
       </c>
       <c r="H51" t="n">
-        <v>72.61741219354971</v>
+        <v>121.0852285483004</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.1035204554120877</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1146752902331229</v>
+        <v>-0.1076335459548217</v>
       </c>
       <c r="H52" t="n">
-        <v>-10.7754885511571</v>
+        <v>-3.973215270702664</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.09235500825020453</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.08409352872391211</v>
+        <v>-0.08182742571573319</v>
       </c>
       <c r="H53" t="n">
-        <v>8.945350861656296</v>
+        <v>11.39903805319407</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.07312266103795016</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07977332382905648</v>
+        <v>0.09172326355517363</v>
       </c>
       <c r="H54" t="n">
-        <v>9.095214392778557</v>
+        <v>25.43753503113061</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06195165733408216</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07394450847734348</v>
+        <v>0.07790929710140275</v>
       </c>
       <c r="H55" t="n">
-        <v>19.35840243722351</v>
+        <v>25.75821286146874</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.03498921493576074</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03109048444348109</v>
+        <v>0.03163388128049504</v>
       </c>
       <c r="H56" t="n">
-        <v>-11.14266353056967</v>
+        <v>-9.589622577774325</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.00577351772658883</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02866961826810242</v>
+        <v>-0.00755322800037414</v>
       </c>
       <c r="H57" t="n">
-        <v>396.5710616262593</v>
+        <v>-230.8254058975033</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02501060694948318</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04529116095698538</v>
+        <v>0.03208914107160291</v>
       </c>
       <c r="H58" t="n">
-        <v>81.08781225687636</v>
+        <v>28.3021285185804</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02367862578046835</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03455642447577283</v>
+        <v>0.03752646890781916</v>
       </c>
       <c r="H59" t="n">
-        <v>45.93931588832823</v>
+        <v>58.48246116872795</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.03244265799751207</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02921688444278031</v>
+        <v>0.03294721855803148</v>
       </c>
       <c r="H60" t="n">
-        <v>-9.943000215885938</v>
+        <v>1.555238046642488</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.01265799316980976</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02249262547667658</v>
+        <v>0.006224637330524719</v>
       </c>
       <c r="H61" t="n">
-        <v>77.69503565796779</v>
+        <v>-50.82445339462709</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06036261791027676</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05688905847556601</v>
+        <v>0.06769913375723428</v>
       </c>
       <c r="H62" t="n">
-        <v>-5.754487719326323</v>
+        <v>12.1540716770478</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.0325894933447331</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04651718184026379</v>
+        <v>0.05590616199805591</v>
       </c>
       <c r="H63" t="n">
-        <v>42.73674447222295</v>
+        <v>71.54658222721679</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.04052618101007328</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03421533071850221</v>
+        <v>0.01848840694080496</v>
       </c>
       <c r="H64" t="n">
-        <v>-15.57227978131575</v>
+        <v>-54.37910387803518</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.05606192114889961</v>
       </c>
       <c r="G65" t="n">
-        <v>0.06042688437329032</v>
+        <v>0.04976151977798025</v>
       </c>
       <c r="H65" t="n">
-        <v>7.785967970661295</v>
+        <v>-11.23829016523639</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.09355410458905353</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1090907559321947</v>
+        <v>0.09360367629722982</v>
       </c>
       <c r="H66" t="n">
-        <v>16.60712954432901</v>
+        <v>0.05298720819791147</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.1154466564276604</v>
       </c>
       <c r="G67" t="n">
-        <v>0.08925361875051105</v>
+        <v>0.0988613738629707</v>
       </c>
       <c r="H67" t="n">
-        <v>-22.68843333159854</v>
+        <v>-14.36618701476395</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.0348504828690879</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.02844111823196467</v>
+        <v>-0.0167433095583018</v>
       </c>
       <c r="H68" t="n">
-        <v>18.39103538736987</v>
+        <v>51.95673580421757</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.02122185286614946</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.01177002466872856</v>
+        <v>-0.00238756824422157</v>
       </c>
       <c r="H69" t="n">
-        <v>44.53818550639994</v>
+        <v>88.74948262397045</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.0926362579572626</v>
       </c>
       <c r="G70" t="n">
-        <v>0.08475393619452318</v>
+        <v>0.09136055483698134</v>
       </c>
       <c r="H70" t="n">
-        <v>-8.508894828605778</v>
+        <v>-1.377109944218387</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.09120879629782344</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1040528231893123</v>
+        <v>0.1017772330056154</v>
       </c>
       <c r="H71" t="n">
-        <v>14.08200460134278</v>
+        <v>11.58708056324186</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.05608102614120504</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.0533195950210853</v>
+        <v>-0.04829176454060918</v>
       </c>
       <c r="H72" t="n">
-        <v>4.924002483775533</v>
+        <v>13.88929935230405</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.0737625898728473</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.06612633715551289</v>
+        <v>-0.06905767654755533</v>
       </c>
       <c r="H73" t="n">
-        <v>10.35247370041895</v>
+        <v>6.378454625037357</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.09994680679509479</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1211774652428133</v>
+        <v>0.1131435076837879</v>
       </c>
       <c r="H74" t="n">
-        <v>21.24195772581747</v>
+        <v>13.20372437285388</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.09740402268980237</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1045121705090663</v>
+        <v>0.1259883819826617</v>
       </c>
       <c r="H75" t="n">
-        <v>7.29759164249395</v>
+        <v>29.34617945286561</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.02557059836297979</v>
       </c>
       <c r="G76" t="n">
-        <v>0.005792477837151994</v>
+        <v>-0.007708053796423714</v>
       </c>
       <c r="H76" t="n">
-        <v>-77.34711657925793</v>
+        <v>-130.1442058062402</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.01410904014821853</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01300602464535132</v>
+        <v>0.01109402432663172</v>
       </c>
       <c r="H77" t="n">
-        <v>-7.817792644147237</v>
+        <v>-21.36939005002051</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.06427696861697516</v>
       </c>
       <c r="G78" t="n">
-        <v>0.100315789515285</v>
+        <v>0.111303913918791</v>
       </c>
       <c r="H78" t="n">
-        <v>56.06801576636925</v>
+        <v>73.16297939009576</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.07671389623940993</v>
       </c>
       <c r="G79" t="n">
-        <v>0.09804389740097742</v>
+        <v>0.1065079716764543</v>
       </c>
       <c r="H79" t="n">
-        <v>27.80461195061778</v>
+        <v>38.83791190068428</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.1656084023322101</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1495969118918831</v>
+        <v>-0.1847227521994877</v>
       </c>
       <c r="H80" t="n">
-        <v>9.668283864129066</v>
+        <v>-11.54189618286048</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2100920145126676</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1380216932368708</v>
+        <v>-0.1432004410388426</v>
       </c>
       <c r="H81" t="n">
-        <v>34.30416974342035</v>
+        <v>31.83917943239663</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1146953280194116</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1257018018279704</v>
+        <v>0.1257243782375966</v>
       </c>
       <c r="H82" t="n">
-        <v>9.596270396206551</v>
+        <v>9.615954205491613</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1779822125067425</v>
       </c>
       <c r="G83" t="n">
-        <v>0.2101594080440368</v>
+        <v>0.1865949915671559</v>
       </c>
       <c r="H83" t="n">
-        <v>18.07888276255433</v>
+        <v>4.839123493920554</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.02383764904417494</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05984911152112442</v>
+        <v>0.06514484374669685</v>
       </c>
       <c r="H84" t="n">
-        <v>151.0696898432162</v>
+        <v>173.285522519327</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,14 +3242,14 @@
         <v>0.0615759402063604</v>
       </c>
       <c r="G85" t="n">
-        <v>0.07995278777763996</v>
+        <v>0.06839527750644968</v>
       </c>
       <c r="H85" t="n">
-        <v>29.84420133853085</v>
+        <v>11.07467831954418</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>